--- a/SUbneteo.xlsx
+++ b/SUbneteo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kemuelm.lopez/Documents/GitHub/Redes2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA239F2-33E0-1845-B0F9-0EFB27450F5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3789622C-0F4D-AF48-A278-7050A6A5D1DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{548827A3-CDB9-6F40-857A-4D3F245D54F7}"/>
+    <workbookView xWindow="8800" yWindow="460" windowWidth="24020" windowHeight="14440" activeTab="1" xr2:uid="{548827A3-CDB9-6F40-857A-4D3F245D54F7}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="65">
   <si>
     <t>Rango de Direcciones</t>
   </si>
@@ -133,39 +133,9 @@
     <t>172.16.10.0 - 172.16.10.255</t>
   </si>
   <si>
-    <t>172.16.11.0 - 172.16.11.127</t>
-  </si>
-  <si>
-    <t>255.255.254.128</t>
-  </si>
-  <si>
-    <t>172.16.11.128 - 172.16.11.255</t>
-  </si>
-  <si>
-    <t>172.16.12.0 - 172.16.12.63</t>
-  </si>
-  <si>
-    <t>/26</t>
-  </si>
-  <si>
-    <t>255.255.255.192</t>
-  </si>
-  <si>
     <t>Direccionamiento - I1</t>
   </si>
   <si>
-    <t>172.16.13.0 - 172.16.13.255</t>
-  </si>
-  <si>
-    <t>172.16.14.0 - 172.16.14.127</t>
-  </si>
-  <si>
-    <t>172.16.14.128 - 172.16.14.255</t>
-  </si>
-  <si>
-    <t>172.16.15.0 - 172.16.15.63</t>
-  </si>
-  <si>
     <t>Direccionamiento - H1</t>
   </si>
   <si>
@@ -175,39 +145,15 @@
     <t>172.16.17.0 - 172.16.17.127</t>
   </si>
   <si>
-    <t>172.16.17.128 - 172.16.17.255</t>
-  </si>
-  <si>
-    <t>172.16.18.0 - 172.16.18.63</t>
-  </si>
-  <si>
     <t>Direccionamiento - G1</t>
   </si>
   <si>
     <t>172.16.19.0 - 172.16.19.255</t>
   </si>
   <si>
-    <t>172.16.20.0 - 172.16.20.127</t>
-  </si>
-  <si>
-    <t>172.16.20.128 - 172.16.20.255</t>
-  </si>
-  <si>
-    <t>172.16.21.0 - 172.16.21.63</t>
-  </si>
-  <si>
     <t>172.16.22.0 - 172.16.22.255</t>
   </si>
   <si>
-    <t>172.16.23.0 - 172.16.23.127</t>
-  </si>
-  <si>
-    <t>172.16.23.128 - 172.16.23.255</t>
-  </si>
-  <si>
-    <t>172.16.24.0 - 172.16.24.63</t>
-  </si>
-  <si>
     <t>Direccionamiento - CISE</t>
   </si>
   <si>
@@ -217,9 +163,6 @@
     <t>Comisionado</t>
   </si>
   <si>
-    <t>Direccionamiento - F1</t>
-  </si>
-  <si>
     <t>Matematicas</t>
   </si>
   <si>
@@ -236,6 +179,54 @@
   </si>
   <si>
     <t>172.16.27.0 - 172.16.27.63</t>
+  </si>
+  <si>
+    <t>172.16.11.0 - 172.16.11.255</t>
+  </si>
+  <si>
+    <t>172.16.12.0 - 172.16.12.255</t>
+  </si>
+  <si>
+    <t>172.16.13.0 - 172.16.13.127</t>
+  </si>
+  <si>
+    <t>172.16.14.0 - 172.16.14.255</t>
+  </si>
+  <si>
+    <t>172.16.15.0 - 172.16.15.255</t>
+  </si>
+  <si>
+    <t>172.16.18.0 - 172.16.18.255</t>
+  </si>
+  <si>
+    <t>172.16.20.0 - 172.16.20.255</t>
+  </si>
+  <si>
+    <t>172.16.21.0 - 172.16.21.127</t>
+  </si>
+  <si>
+    <t>172.16.26.0 - 172.16.26.255</t>
+  </si>
+  <si>
+    <t>172.16.29.0 - 172.16.29.128</t>
+  </si>
+  <si>
+    <t>172.16.23.0 - 172.16.23.255</t>
+  </si>
+  <si>
+    <t>172.16.24.0 - 172.16.24.255</t>
+  </si>
+  <si>
+    <t>172.16.25.0 - 172.16.25.128</t>
+  </si>
+  <si>
+    <t>172.16.27.0 - 172.16.27.255</t>
+  </si>
+  <si>
+    <t>172.16.28.0 - 172.16.28.255</t>
+  </si>
+  <si>
+    <t>Registro</t>
   </si>
 </sst>
 </file>
@@ -628,14 +619,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E8969FB-2BB9-F043-A582-1E2AAC4FC05D}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28:E31"/>
+    <sheetView topLeftCell="A19" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
-    <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="4" max="4" width="17.19921875" customWidth="1"/>
+    <col min="2" max="2" width="3.19921875" customWidth="1"/>
+    <col min="4" max="4" width="17.59765625" customWidth="1"/>
     <col min="5" max="5" width="16.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -873,14 +864,14 @@
         <v>30</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -892,14 +883,14 @@
         <v>31</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -910,7 +901,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="2" t="s">
@@ -922,7 +913,7 @@
     </row>
     <row r="19" spans="1:6" s="1" customFormat="1">
       <c r="A19" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -956,7 +947,7 @@
         <v>29</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="2" t="s">
@@ -974,14 +965,14 @@
         <v>30</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -993,14 +984,14 @@
         <v>31</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1011,7 +1002,7 @@
         <v>12</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="2" t="s">
@@ -1023,7 +1014,7 @@
     </row>
     <row r="26" spans="1:6" s="1" customFormat="1">
       <c r="A26" s="4" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1057,7 +1048,7 @@
         <v>29</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="2" t="s">
@@ -1075,14 +1066,14 @@
         <v>30</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1094,14 +1085,14 @@
         <v>31</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1112,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="2" t="s">
@@ -1163,8 +1154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9036D49-4059-0548-A631-DC2450968DD4}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="275" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="275" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1177,7 +1168,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="6" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -1211,7 +1202,7 @@
         <v>29</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="2" t="s">
@@ -1229,14 +1220,14 @@
         <v>30</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1248,14 +1239,14 @@
         <v>31</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1266,7 +1257,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="2" t="s">
@@ -1278,7 +1269,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="6" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -1312,7 +1303,7 @@
         <v>29</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="2" t="s">
@@ -1327,17 +1318,17 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1346,17 +1337,17 @@
         <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1367,7 +1358,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="2" t="s">
@@ -1379,7 +1370,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -1413,11 +1404,11 @@
         <v>29</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="D17" s="5"/>
-      <c r="E17" t="s">
-        <v>15</v>
+      <c r="E17" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="F17" t="s">
         <v>24</v>
@@ -1428,17 +1419,17 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="D18" s="5"/>
-      <c r="E18" t="s">
-        <v>34</v>
+      <c r="E18" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="F18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1447,17 +1438,17 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="D19" s="5"/>
-      <c r="E19" t="s">
-        <v>38</v>
+      <c r="E19" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1468,10 +1459,10 @@
         <v>12</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="D20" s="5"/>
-      <c r="E20" t="s">
+      <c r="E20" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F20" t="s">

--- a/SUbneteo.xlsx
+++ b/SUbneteo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kemuelm.lopez/Documents/GitHub/Redes2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3789622C-0F4D-AF48-A278-7050A6A5D1DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BEBC1DD-A033-7147-BB69-7CE4619B5B23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8800" yWindow="460" windowWidth="24020" windowHeight="14440" activeTab="1" xr2:uid="{548827A3-CDB9-6F40-857A-4D3F245D54F7}"/>
+    <workbookView xWindow="-3360" yWindow="460" windowWidth="24020" windowHeight="14440" xr2:uid="{548827A3-CDB9-6F40-857A-4D3F245D54F7}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -291,11 +291,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -619,26 +619,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E8969FB-2BB9-F043-A582-1E2AAC4FC05D}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
-    <col min="2" max="2" width="3.19921875" customWidth="1"/>
+    <col min="2" max="2" width="16.19921875" customWidth="1"/>
     <col min="4" max="4" width="17.59765625" customWidth="1"/>
     <col min="5" max="5" width="16.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
@@ -647,10 +647,10 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="4"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
@@ -665,10 +665,10 @@
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="4"/>
       <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
@@ -683,10 +683,10 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="4"/>
       <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
@@ -702,10 +702,10 @@
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="4"/>
       <c r="E5" s="2" t="s">
         <v>23</v>
       </c>
@@ -721,10 +721,10 @@
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="4"/>
       <c r="E6" s="2" t="s">
         <v>23</v>
       </c>
@@ -740,10 +740,10 @@
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="4"/>
       <c r="E7" s="2" t="s">
         <v>23</v>
       </c>
@@ -759,10 +759,10 @@
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="4"/>
       <c r="E8" s="2" t="s">
         <v>23</v>
       </c>
@@ -777,10 +777,10 @@
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="4"/>
       <c r="E9" s="2" t="s">
         <v>23</v>
       </c>
@@ -795,10 +795,10 @@
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="4"/>
       <c r="E10" s="2" t="s">
         <v>26</v>
       </c>
@@ -811,14 +811,14 @@
       <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:6" s="1" customFormat="1">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
@@ -827,10 +827,10 @@
       <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="4"/>
       <c r="E13" s="2" t="s">
         <v>4</v>
       </c>
@@ -845,10 +845,10 @@
       <c r="B14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="4"/>
       <c r="E14" s="2" t="s">
         <v>23</v>
       </c>
@@ -863,10 +863,10 @@
       <c r="B15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="4"/>
       <c r="E15" s="2" t="s">
         <v>23</v>
       </c>
@@ -882,10 +882,10 @@
       <c r="B16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="4"/>
       <c r="E16" s="2" t="s">
         <v>23</v>
       </c>
@@ -900,10 +900,10 @@
       <c r="B17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="4"/>
       <c r="E17" s="2" t="s">
         <v>26</v>
       </c>
@@ -912,14 +912,14 @@
       </c>
     </row>
     <row r="19" spans="1:6" s="1" customFormat="1">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
@@ -928,10 +928,10 @@
       <c r="B20" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="3"/>
+      <c r="D20" s="4"/>
       <c r="E20" s="2" t="s">
         <v>4</v>
       </c>
@@ -946,10 +946,10 @@
       <c r="B21" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="3"/>
+      <c r="D21" s="4"/>
       <c r="E21" s="2" t="s">
         <v>23</v>
       </c>
@@ -964,10 +964,10 @@
       <c r="B22" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="3"/>
+      <c r="D22" s="4"/>
       <c r="E22" s="2" t="s">
         <v>23</v>
       </c>
@@ -983,10 +983,10 @@
       <c r="B23" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="3"/>
+      <c r="D23" s="4"/>
       <c r="E23" s="2" t="s">
         <v>23</v>
       </c>
@@ -1001,10 +1001,10 @@
       <c r="B24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="4"/>
       <c r="E24" s="2" t="s">
         <v>26</v>
       </c>
@@ -1013,14 +1013,14 @@
       </c>
     </row>
     <row r="26" spans="1:6" s="1" customFormat="1">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2" t="s">
@@ -1029,10 +1029,10 @@
       <c r="B27" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="4"/>
       <c r="E27" s="2" t="s">
         <v>4</v>
       </c>
@@ -1047,10 +1047,10 @@
       <c r="B28" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="4"/>
       <c r="E28" s="2" t="s">
         <v>23</v>
       </c>
@@ -1065,10 +1065,10 @@
       <c r="B29" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="3"/>
+      <c r="D29" s="4"/>
       <c r="E29" s="2" t="s">
         <v>23</v>
       </c>
@@ -1084,10 +1084,10 @@
       <c r="B30" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="3"/>
+      <c r="D30" s="4"/>
       <c r="E30" s="2" t="s">
         <v>23</v>
       </c>
@@ -1102,10 +1102,10 @@
       <c r="B31" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="3"/>
+      <c r="D31" s="4"/>
       <c r="E31" s="2" t="s">
         <v>26</v>
       </c>
@@ -1115,6 +1115,21 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="C15:D15"/>
@@ -1129,21 +1144,6 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1154,7 +1154,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9036D49-4059-0548-A631-DC2450968DD4}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="275" workbookViewId="0">
+    <sheetView zoomScale="275" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -1471,12 +1471,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="C9:D9"/>
@@ -1489,6 +1483,12 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
